--- a/DataConfig/Arkham/Datas/HeroActiveDataSet.xlsx
+++ b/DataConfig/Arkham/Datas/HeroActiveDataSet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11948\Documents\GitHub\Booom202408\DataConfig\Arkham\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B427F8FF-62B2-47FB-A275-00D576B33DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8EEA65-FC57-47C5-9465-1B943046B121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5730" yWindow="1620" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,25 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
-  <si>
-    <t>玩家等级</t>
-  </si>
-  <si>
-    <t>玩家攻击</t>
-  </si>
-  <si>
-    <t>玩家伤害</t>
-  </si>
-  <si>
-    <t>暴击伤害</t>
-  </si>
-  <si>
-    <t>近战暗杀伤害</t>
-  </si>
-  <si>
-    <t>近战伤害</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>##var</t>
   </si>
@@ -58,37 +40,25 @@
   </si>
   <si>
     <t>##</t>
-  </si>
-  <si>
-    <t>int</t>
   </si>
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Dfs</t>
-  </si>
-  <si>
-    <t>Mov</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>Atk</t>
+    <t>攻击力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exp</t>
+    <t>等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,79 +418,51 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:7" ht="14.5">
       <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.5">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" ht="14.5">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7">
       <c r="B4">
@@ -529,18 +471,6 @@
       <c r="C4">
         <v>65</v>
       </c>
-      <c r="D4">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>1.2</v>
-      </c>
-      <c r="F4">
-        <v>45</v>
-      </c>
-      <c r="G4">
-        <v>0.8</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5">
@@ -549,18 +479,6 @@
       <c r="C5">
         <v>71</v>
       </c>
-      <c r="D5">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>1.2</v>
-      </c>
-      <c r="F5">
-        <v>63</v>
-      </c>
-      <c r="G5">
-        <v>0.8</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6">
@@ -569,18 +487,6 @@
       <c r="C6">
         <v>78</v>
       </c>
-      <c r="D6">
-        <v>28</v>
-      </c>
-      <c r="E6">
-        <v>1.2</v>
-      </c>
-      <c r="F6">
-        <v>78</v>
-      </c>
-      <c r="G6">
-        <v>0.8</v>
-      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7">
@@ -589,18 +495,6 @@
       <c r="C7">
         <v>83</v>
       </c>
-      <c r="D7">
-        <v>33</v>
-      </c>
-      <c r="E7">
-        <v>1.2</v>
-      </c>
-      <c r="F7">
-        <v>85</v>
-      </c>
-      <c r="G7">
-        <v>0.8</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="B8">
@@ -608,18 +502,6 @@
       </c>
       <c r="C8">
         <v>88</v>
-      </c>
-      <c r="D8">
-        <v>38</v>
-      </c>
-      <c r="E8">
-        <v>1.2</v>
-      </c>
-      <c r="F8">
-        <v>85</v>
-      </c>
-      <c r="G8">
-        <v>0.8</v>
       </c>
     </row>
   </sheetData>
